--- a/downloads/TemplateBulking_Initial_Assessment.xlsx
+++ b/downloads/TemplateBulking_Initial_Assessment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/princealvinyusuf/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paske\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD4F2B5-B3A1-1949-89A5-177433B15994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B00257-3EB4-49DC-BBB9-CB5BCC788C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{76849D14-CFEE-A04D-9417-45C354779E16}"/>
+    <workbookView xWindow="2640" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{76849D14-CFEE-A04D-9417-45C354779E16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>company_name</t>
   </si>
@@ -55,14 +45,17 @@
     <t>disability_need_count</t>
   </si>
   <si>
-    <t>PT. Alvin Indofood Jaya</t>
+    <t>tindak_lanjut_total</t>
+  </si>
+  <si>
+    <t>PT. Alvin Indofood Jaya Selalu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,6 +77,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,11 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,23 +441,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC659A4-6FD9-8442-B426-0851B0246771}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,13 +474,16 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3">
         <v>24</v>
@@ -493,6 +498,9 @@
         <v>0.9</v>
       </c>
       <c r="F2" s="3">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3">
         <v>0</v>
       </c>
     </row>

--- a/downloads/TemplateBulking_Initial_Assessment.xlsx
+++ b/downloads/TemplateBulking_Initial_Assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paske\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B00257-3EB4-49DC-BBB9-CB5BCC788C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A943A992-1B09-4838-B1A2-1D325B00F4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{76849D14-CFEE-A04D-9417-45C354779E16}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{76849D14-CFEE-A04D-9417-45C354779E16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,10 @@
     <t>disability_need_count</t>
   </si>
   <si>
+    <t>PT. Alvin Indofood Makmur</t>
+  </si>
+  <si>
     <t>tindak_lanjut_total</t>
-  </si>
-  <si>
-    <t>PT. Alvin Indofood Jaya Selalu</t>
   </si>
 </sst>
 </file>
@@ -80,7 +80,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -444,21 +444,21 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="22.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:7" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -483,10 +483,10 @@
     </row>
     <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3">
         <v>90</v>
@@ -501,7 +501,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
